--- a/data/trans_orig/IP07C16-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C16-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6B008A4-E7EB-4337-B354-6593BF0F0C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9086E4CD-6A44-4069-B776-F445717E6DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{AEC24E35-070A-4677-97FB-F08B5B11B878}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{10A7FF26-CC92-445A-8E31-982DBFB74F33}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,195 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
     <t>Casi siempre</t>
   </si>
   <si>
-    <t>Nunca</t>
-  </si>
-  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
+  </si>
+  <si>
+    <t>41,56%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
     <t>14,12%</t>
   </si>
   <si>
@@ -118,33 +286,6 @@
     <t>16,45%</t>
   </si>
   <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
     <t>45,77%</t>
   </si>
   <si>
@@ -172,27 +313,6 @@
     <t>46,53%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
     <t>38,04%</t>
   </si>
   <si>
@@ -220,124 +340,49 @@
     <t>43,96%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
   </si>
   <si>
     <t>13,2%</t>
@@ -367,33 +412,6 @@
     <t>15,75%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
     <t>44,03%</t>
   </si>
   <si>
@@ -421,24 +439,6 @@
     <t>46,14%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
     <t>40,69%</t>
   </si>
   <si>
@@ -469,6 +469,144 @@
     <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 43,5%)</t>
   </si>
   <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>49,16%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
     <t>12,91%</t>
   </si>
   <si>
@@ -496,27 +634,6 @@
     <t>15,32%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
     <t>37,03%</t>
   </si>
   <si>
@@ -544,27 +661,6 @@
     <t>40,97%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
     <t>48,8%</t>
   </si>
   <si>
@@ -592,100 +688,43 @@
     <t>51,92%</t>
   </si>
   <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
   </si>
   <si>
     <t>13,04%</t>
@@ -715,27 +754,6 @@
     <t>15,1%</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
     <t>32,54%</t>
   </si>
   <si>
@@ -760,24 +778,6 @@
     <t>41,19%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
     <t>48,87%</t>
   </si>
   <si>
@@ -808,6 +808,150 @@
     <t>Menores según frecuencia de haber podido estar al aire libre en 2015 (Tasa respuesta: 45,63%)</t>
   </si>
   <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>53,83%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
     <t>13,18%</t>
   </si>
   <si>
@@ -832,27 +976,6 @@
     <t>17,21%</t>
   </si>
   <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
     <t>41,82%</t>
   </si>
   <si>
@@ -880,27 +1003,6 @@
     <t>44,55%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
     <t>42,78%</t>
   </si>
   <si>
@@ -925,106 +1027,31 @@
     <t>45,89%</t>
   </si>
   <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
   </si>
   <si>
     <t>13,86%</t>
@@ -1048,30 +1075,6 @@
     <t>11,98%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
     <t>40,48%</t>
   </si>
   <si>
@@ -1097,9 +1100,6 @@
   </si>
   <si>
     <t>43,34%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
   </si>
   <si>
     <t>43,31%</t>
@@ -1518,7 +1518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BC9540C-63B0-4047-9264-2FA439AACED0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A3984B-70EC-41AB-A338-D78E1F6F7C34}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1908,10 +1908,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>35096</v>
+        <v>685</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1923,34 +1923,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>31725</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>685</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="7">
-        <v>100</v>
-      </c>
-      <c r="N10" s="7">
-        <v>66821</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1959,49 +1959,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>5139</v>
+        <v>578</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1398</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1976</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="7">
-        <v>9</v>
-      </c>
-      <c r="I11" s="7">
-        <v>6365</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="7">
-        <v>17</v>
-      </c>
-      <c r="N11" s="7">
-        <v>11504</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2010,49 +2010,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>172</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>113751</v>
+        <v>5502</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="7">
+        <v>11</v>
+      </c>
+      <c r="I12" s="7">
+        <v>7528</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>19</v>
+      </c>
+      <c r="N12" s="7">
+        <v>13030</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="7">
-        <v>146</v>
-      </c>
-      <c r="I12" s="7">
-        <v>97029</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M12" s="7">
-        <v>318</v>
-      </c>
-      <c r="N12" s="7">
-        <v>210780</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,49 +2061,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>21662</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="7">
+        <v>35</v>
+      </c>
+      <c r="I13" s="7">
+        <v>22986</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>68</v>
+      </c>
+      <c r="N13" s="7">
+        <v>44647</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1526</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="M13" s="7">
-        <v>2</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1526</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2112,49 +2112,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>140</v>
+        <v>47</v>
       </c>
       <c r="D14" s="7">
-        <v>94521</v>
+        <v>30641</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" s="7">
+        <v>24</v>
+      </c>
+      <c r="I14" s="7">
+        <v>16448</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="7">
-        <v>153</v>
-      </c>
-      <c r="I14" s="7">
-        <v>103855</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>71</v>
+      </c>
+      <c r="N14" s="7">
+        <v>47089</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="M14" s="7">
-        <v>293</v>
-      </c>
-      <c r="N14" s="7">
-        <v>198376</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,102 +2163,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>373</v>
+        <v>90</v>
       </c>
       <c r="D15" s="7">
-        <v>248507</v>
+        <v>59069</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
-        <v>357</v>
+        <v>72</v>
       </c>
       <c r="I15" s="7">
-        <v>240500</v>
+        <v>48359</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
-        <v>730</v>
+        <v>162</v>
       </c>
       <c r="N15" s="7">
-        <v>489007</v>
+        <v>107427</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>5502</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1526</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M16" s="7">
+        <v>2</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1526</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H16" s="7">
-        <v>11</v>
-      </c>
-      <c r="I16" s="7">
-        <v>7528</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M16" s="7">
-        <v>19</v>
-      </c>
-      <c r="N16" s="7">
-        <v>13030</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,49 +2267,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>578</v>
+        <v>5139</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="7">
+        <v>9</v>
+      </c>
+      <c r="I17" s="7">
+        <v>6365</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M17" s="7">
+        <v>17</v>
+      </c>
+      <c r="N17" s="7">
+        <v>11504</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1398</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="M17" s="7">
-        <v>3</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1976</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,49 +2318,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D18" s="7">
-        <v>21662</v>
+        <v>35096</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H18" s="7">
+        <v>47</v>
+      </c>
+      <c r="I18" s="7">
+        <v>31725</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>100</v>
+      </c>
+      <c r="N18" s="7">
+        <v>66821</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H18" s="7">
-        <v>35</v>
-      </c>
-      <c r="I18" s="7">
-        <v>22986</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="M18" s="7">
-        <v>68</v>
-      </c>
-      <c r="N18" s="7">
-        <v>44647</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,46 +2369,46 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>172</v>
       </c>
       <c r="D19" s="7">
-        <v>685</v>
+        <v>113751</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="7">
+        <v>146</v>
+      </c>
+      <c r="I19" s="7">
+        <v>97029</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>318</v>
+      </c>
+      <c r="N19" s="7">
+        <v>210780</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>685</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>90</v>
@@ -2420,10 +2420,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>47</v>
+        <v>140</v>
       </c>
       <c r="D20" s="7">
-        <v>30641</v>
+        <v>94521</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>91</v>
@@ -2435,10 +2435,10 @@
         <v>93</v>
       </c>
       <c r="H20" s="7">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="I20" s="7">
-        <v>16448</v>
+        <v>103855</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>94</v>
@@ -2450,10 +2450,10 @@
         <v>96</v>
       </c>
       <c r="M20" s="7">
-        <v>71</v>
+        <v>293</v>
       </c>
       <c r="N20" s="7">
-        <v>47089</v>
+        <v>198376</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>97</v>
@@ -2471,49 +2471,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>90</v>
+        <v>373</v>
       </c>
       <c r="D21" s="7">
-        <v>59069</v>
+        <v>248507</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>72</v>
+        <v>357</v>
       </c>
       <c r="I21" s="7">
-        <v>48359</v>
+        <v>240500</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>162</v>
+        <v>730</v>
       </c>
       <c r="N21" s="7">
-        <v>107427</v>
+        <v>489007</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2524,49 +2524,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>40598</v>
+        <v>685</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>100</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1526</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="H22" s="7">
-        <v>58</v>
-      </c>
-      <c r="I22" s="7">
-        <v>39253</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>3</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2211</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="M22" s="7">
-        <v>119</v>
-      </c>
-      <c r="N22" s="7">
-        <v>79851</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,13 +2581,13 @@
         <v>5717</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -2596,13 +2596,13 @@
         <v>7763</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M23" s="7">
         <v>20</v>
@@ -2611,13 +2611,13 @@
         <v>13480</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,49 +2626,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>205</v>
+        <v>61</v>
       </c>
       <c r="D24" s="7">
-        <v>135413</v>
+        <v>40598</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H24" s="7">
+        <v>58</v>
+      </c>
+      <c r="I24" s="7">
+        <v>39253</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="H24" s="7">
-        <v>181</v>
-      </c>
-      <c r="I24" s="7">
-        <v>120014</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>119</v>
+      </c>
+      <c r="N24" s="7">
+        <v>79851</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="M24" s="7">
-        <v>386</v>
-      </c>
-      <c r="N24" s="7">
-        <v>255427</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,40 +2677,40 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>205</v>
       </c>
       <c r="D25" s="7">
-        <v>685</v>
+        <v>135413</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="7">
+        <v>181</v>
+      </c>
+      <c r="I25" s="7">
+        <v>120014</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="H25" s="7">
-        <v>2</v>
-      </c>
-      <c r="I25" s="7">
-        <v>1526</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>129</v>
       </c>
       <c r="M25" s="7">
-        <v>3</v>
+        <v>386</v>
       </c>
       <c r="N25" s="7">
-        <v>2211</v>
+        <v>255427</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>130</v>
@@ -2785,13 +2785,13 @@
         <v>307576</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>429</v>
@@ -2800,13 +2800,13 @@
         <v>288858</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>892</v>
@@ -2815,13 +2815,13 @@
         <v>596434</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2840,7 +2840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46109746-05AF-40FE-9B4A-948E64D9E97C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA3BF0A-FD93-4C1A-82EA-C6FF64ABC46B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3230,49 +3230,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>33554</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="H10" s="7">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>30102</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>147</v>
+        <v>20</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="M10" s="7">
-        <v>92</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>63656</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,49 +3281,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>1304</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>44</v>
+        <v>144</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I11" s="7">
-        <v>4017</v>
+        <v>842</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="M11" s="7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N11" s="7">
-        <v>4017</v>
+        <v>2146</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,49 +3332,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>142</v>
+        <v>12</v>
       </c>
       <c r="D12" s="7">
-        <v>96241</v>
+        <v>8662</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H12" s="7">
-        <v>132</v>
+        <v>9</v>
       </c>
       <c r="I12" s="7">
-        <v>91725</v>
+        <v>6339</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="M12" s="7">
-        <v>274</v>
+        <v>21</v>
       </c>
       <c r="N12" s="7">
-        <v>187965</v>
+        <v>15002</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>166</v>
+        <v>145</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,49 +3383,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D13" s="7">
-        <v>3270</v>
+        <v>22514</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="I13" s="7">
-        <v>916</v>
+        <v>32115</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="M13" s="7">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="N13" s="7">
-        <v>4185</v>
+        <v>54629</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,49 +3434,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>185</v>
+        <v>44</v>
       </c>
       <c r="D14" s="7">
-        <v>126840</v>
+        <v>31409</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H14" s="7">
+        <v>43</v>
+      </c>
+      <c r="I14" s="7">
+        <v>30071</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="M14" s="7">
+        <v>87</v>
+      </c>
+      <c r="N14" s="7">
+        <v>61481</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H14" s="7">
-        <v>163</v>
-      </c>
-      <c r="I14" s="7">
-        <v>114763</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="M14" s="7">
-        <v>348</v>
-      </c>
-      <c r="N14" s="7">
-        <v>241603</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,102 +3485,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>382</v>
+        <v>89</v>
       </c>
       <c r="D15" s="7">
-        <v>259904</v>
+        <v>63890</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
-        <v>344</v>
+        <v>98</v>
       </c>
       <c r="I15" s="7">
-        <v>241522</v>
+        <v>69368</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
-        <v>726</v>
+        <v>187</v>
       </c>
       <c r="N15" s="7">
-        <v>501426</v>
+        <v>133258</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>8662</v>
+        <v>3270</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="H16" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>6339</v>
+        <v>916</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>15002</v>
+        <v>4185</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,49 +3589,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>1304</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I17" s="7">
-        <v>842</v>
+        <v>4017</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>2146</v>
+        <v>4017</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,49 +3640,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D18" s="7">
-        <v>22514</v>
+        <v>33554</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H18" s="7">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I18" s="7">
-        <v>32115</v>
+        <v>30102</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="M18" s="7">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="N18" s="7">
-        <v>54629</v>
+        <v>63656</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,49 +3691,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>96241</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>198</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>91725</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>203</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>274</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>187965</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>27</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,43 +3742,43 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>44</v>
+        <v>185</v>
       </c>
       <c r="D20" s="7">
-        <v>31409</v>
+        <v>126840</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>163</v>
+      </c>
+      <c r="I20" s="7">
+        <v>114763</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H20" s="7">
-        <v>43</v>
-      </c>
-      <c r="I20" s="7">
-        <v>30071</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>348</v>
+      </c>
+      <c r="N20" s="7">
+        <v>241603</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="M20" s="7">
-        <v>87</v>
-      </c>
-      <c r="N20" s="7">
-        <v>61481</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>214</v>
@@ -3793,49 +3793,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>89</v>
+        <v>382</v>
       </c>
       <c r="D21" s="7">
-        <v>63890</v>
+        <v>259904</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>98</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>69368</v>
+        <v>241522</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>187</v>
+        <v>726</v>
       </c>
       <c r="N21" s="7">
-        <v>133258</v>
+        <v>501426</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,49 +3846,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="D22" s="7">
-        <v>42216</v>
+        <v>3270</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>216</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>916</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="H22" s="7">
-        <v>51</v>
-      </c>
-      <c r="I22" s="7">
-        <v>36441</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>6</v>
+      </c>
+      <c r="N22" s="7">
+        <v>4185</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="M22" s="7">
+      <c r="Q22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="N22" s="7">
-        <v>78658</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,13 +3903,13 @@
         <v>1304</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H23" s="7">
         <v>7</v>
@@ -3918,13 +3918,13 @@
         <v>4859</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M23" s="7">
         <v>9</v>
@@ -3933,13 +3933,13 @@
         <v>6163</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>74</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,49 +3948,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>173</v>
+        <v>62</v>
       </c>
       <c r="D24" s="7">
-        <v>118755</v>
+        <v>42216</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>98</v>
+        <v>229</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H24" s="7">
+        <v>51</v>
+      </c>
+      <c r="I24" s="7">
+        <v>36441</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="H24" s="7">
-        <v>177</v>
-      </c>
-      <c r="I24" s="7">
-        <v>123839</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>113</v>
+      </c>
+      <c r="N24" s="7">
+        <v>78658</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="M24" s="7">
-        <v>350</v>
-      </c>
-      <c r="N24" s="7">
-        <v>242595</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,49 +3999,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>5</v>
+        <v>173</v>
       </c>
       <c r="D25" s="7">
-        <v>3270</v>
+        <v>118755</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H25" s="7">
+        <v>177</v>
+      </c>
+      <c r="I25" s="7">
+        <v>123839</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>916</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>350</v>
+      </c>
+      <c r="N25" s="7">
+        <v>242595</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="M25" s="7">
-        <v>6</v>
-      </c>
-      <c r="N25" s="7">
-        <v>4185</v>
-      </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,13 +4107,13 @@
         <v>323795</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>442</v>
@@ -4122,13 +4122,13 @@
         <v>310890</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>913</v>
@@ -4137,13 +4137,13 @@
         <v>634685</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4162,7 +4162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3972E812-DB41-44AC-97DF-001C141F43AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716AFE9A-2237-41F6-86E6-95C8C1CF179D}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4552,49 +4552,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>35804</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H10" s="7">
-        <v>56</v>
-      </c>
-      <c r="I10" s="7">
-        <v>40726</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="M10" s="7">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>76530</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>18</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,49 +4603,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>6040</v>
+        <v>2116</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1135</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M11" s="7">
+        <v>5</v>
+      </c>
+      <c r="N11" s="7">
+        <v>3251</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="H11" s="7">
-        <v>8</v>
-      </c>
-      <c r="I11" s="7">
-        <v>6151</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="M11" s="7">
-        <v>16</v>
-      </c>
-      <c r="N11" s="7">
-        <v>12192</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>270</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,49 +4654,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>153</v>
+        <v>18</v>
       </c>
       <c r="D12" s="7">
-        <v>113610</v>
+        <v>12373</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H12" s="7">
+        <v>14</v>
+      </c>
+      <c r="I12" s="7">
+        <v>10007</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="M12" s="7">
+        <v>32</v>
+      </c>
+      <c r="N12" s="7">
+        <v>22380</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="H12" s="7">
-        <v>143</v>
-      </c>
-      <c r="I12" s="7">
-        <v>103095</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="M12" s="7">
-        <v>296</v>
-      </c>
-      <c r="N12" s="7">
-        <v>216705</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,49 +4705,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>27081</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>274</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H13" s="7">
+        <v>53</v>
+      </c>
+      <c r="I13" s="7">
+        <v>34176</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="M13" s="7">
+        <v>92</v>
+      </c>
+      <c r="N13" s="7">
+        <v>61258</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="H13" s="7">
-        <v>4</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2859</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="M13" s="7">
-        <v>4</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2859</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>285</v>
-      </c>
       <c r="Q13" s="7" t="s">
-        <v>286</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,49 +4756,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="D14" s="7">
-        <v>116219</v>
+        <v>34296</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="H14" s="7">
+        <v>61</v>
+      </c>
+      <c r="I14" s="7">
+        <v>41012</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>111</v>
+      </c>
+      <c r="N14" s="7">
+        <v>75308</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="H14" s="7">
-        <v>151</v>
-      </c>
-      <c r="I14" s="7">
-        <v>105808</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="M14" s="7">
-        <v>310</v>
-      </c>
-      <c r="N14" s="7">
-        <v>222027</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,102 +4807,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>368</v>
+        <v>110</v>
       </c>
       <c r="D15" s="7">
-        <v>271673</v>
+        <v>75866</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
-        <v>362</v>
+        <v>130</v>
       </c>
       <c r="I15" s="7">
-        <v>258639</v>
+        <v>86331</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
-        <v>730</v>
+        <v>240</v>
       </c>
       <c r="N15" s="7">
-        <v>530312</v>
+        <v>162197</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="7">
-        <v>12373</v>
-      </c>
-      <c r="E16" s="7" t="s">
+      <c r="F16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2859</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M16" s="7">
+        <v>4</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2859</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H16" s="7">
-        <v>14</v>
-      </c>
-      <c r="I16" s="7">
-        <v>10007</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="M16" s="7">
-        <v>32</v>
-      </c>
-      <c r="N16" s="7">
-        <v>22380</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>302</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,49 +4911,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>2116</v>
+        <v>6040</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I17" s="7">
-        <v>1135</v>
+        <v>6151</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>44</v>
+        <v>301</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="M17" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N17" s="7">
-        <v>3251</v>
+        <v>12192</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>308</v>
+        <v>61</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,49 +4962,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="D18" s="7">
-        <v>27081</v>
+        <v>35804</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H18" s="7">
+        <v>56</v>
+      </c>
+      <c r="I18" s="7">
+        <v>40726</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="M18" s="7">
+        <v>104</v>
+      </c>
+      <c r="N18" s="7">
+        <v>76530</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H18" s="7">
-        <v>53</v>
-      </c>
-      <c r="I18" s="7">
-        <v>34176</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="M18" s="7">
-        <v>92</v>
-      </c>
-      <c r="N18" s="7">
-        <v>61258</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,49 +5013,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>113610</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>313</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H19" s="7">
+        <v>143</v>
+      </c>
+      <c r="I19" s="7">
+        <v>103095</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="M19" s="7">
+        <v>296</v>
+      </c>
+      <c r="N19" s="7">
+        <v>216705</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="7">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>156</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,40 +5064,40 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>50</v>
+        <v>159</v>
       </c>
       <c r="D20" s="7">
-        <v>34296</v>
+        <v>116219</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H20" s="7">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="I20" s="7">
-        <v>41012</v>
+        <v>105808</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>325</v>
+        <v>132</v>
       </c>
       <c r="M20" s="7">
-        <v>111</v>
+        <v>310</v>
       </c>
       <c r="N20" s="7">
-        <v>75308</v>
+        <v>222027</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>326</v>
@@ -5115,49 +5115,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>110</v>
+        <v>368</v>
       </c>
       <c r="D21" s="7">
-        <v>75866</v>
+        <v>271673</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
-        <v>130</v>
+        <v>362</v>
       </c>
       <c r="I21" s="7">
-        <v>86331</v>
+        <v>258639</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
-        <v>240</v>
+        <v>730</v>
       </c>
       <c r="N21" s="7">
-        <v>162197</v>
+        <v>530312</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,49 +5168,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>48177</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H22" s="7">
+        <v>4</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2859</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M22" s="7">
+        <v>4</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2859</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="H22" s="7">
-        <v>70</v>
-      </c>
-      <c r="I22" s="7">
-        <v>50733</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="M22" s="7">
-        <v>136</v>
-      </c>
-      <c r="N22" s="7">
-        <v>98910</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>334</v>
-      </c>
       <c r="P22" s="7" t="s">
-        <v>335</v>
+        <v>104</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,13 +5225,13 @@
         <v>8156</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -5240,13 +5240,13 @@
         <v>7286</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M23" s="7">
         <v>21</v>
@@ -5255,13 +5255,13 @@
         <v>15442</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5270,49 +5270,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="D24" s="7">
-        <v>140691</v>
+        <v>48177</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H24" s="7">
+        <v>70</v>
+      </c>
+      <c r="I24" s="7">
+        <v>50733</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="M24" s="7">
+        <v>136</v>
+      </c>
+      <c r="N24" s="7">
+        <v>98910</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="H24" s="7">
-        <v>196</v>
-      </c>
-      <c r="I24" s="7">
-        <v>137271</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="M24" s="7">
-        <v>388</v>
-      </c>
-      <c r="N24" s="7">
-        <v>277963</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>351</v>
-      </c>
       <c r="Q24" s="7" t="s">
-        <v>352</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,49 +5321,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>140691</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>44</v>
+        <v>345</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>45</v>
+        <v>346</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>225</v>
+        <v>347</v>
       </c>
       <c r="H25" s="7">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="I25" s="7">
-        <v>2859</v>
+        <v>137271</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>173</v>
+        <v>348</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>245</v>
+        <v>349</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>115</v>
+        <v>350</v>
       </c>
       <c r="M25" s="7">
-        <v>4</v>
+        <v>388</v>
       </c>
       <c r="N25" s="7">
-        <v>2859</v>
+        <v>277963</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5429,13 +5429,13 @@
         <v>347539</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>492</v>
@@ -5444,13 +5444,13 @@
         <v>344970</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>970</v>
@@ -5459,13 +5459,13 @@
         <v>692509</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C16-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C16-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9086E4CD-6A44-4069-B776-F445717E6DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37936319-6755-4F88-9258-1F795F55EAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{10A7FF26-CC92-445A-8E31-982DBFB74F33}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4CE3D0B4-05BD-4F1F-9386-CB8907C85B54}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="373">
   <si>
     <t>Menores según frecuencia de haber podido estar al aire libre en 2007 (Tasa respuesta: 42,4%)</t>
   </si>
@@ -67,1066 +67,1096 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>1,16%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>46,37%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>36,86%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>40,2%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,47%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>46,67%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
   </si>
   <si>
     <t>0,53%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>59,51%</t>
-  </si>
-  <si>
-    <t>41,56%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 43,5%)</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>57,71%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>50,55%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>43,91%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
   </si>
   <si>
     <t>36,68%</t>
   </si>
   <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido estar al aire libre en 2015 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>44,45%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
   </si>
   <si>
     <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>46,14%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 43,5%)</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>56,26%</t>
-  </si>
-  <si>
-    <t>41,0%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>49,16%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>44,47%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>53,39%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>51,46%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido estar al aire libre en 2015 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>36,53%</t>
-  </si>
-  <si>
-    <t>53,83%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1167,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1233,39 +1263,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1317,7 +1347,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1428,13 +1458,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1443,6 +1466,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1507,19 +1537,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A3984B-70EC-41AB-A338-D78E1F6F7C34}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCF627C-451E-4F4B-82CE-389E58DE8C8F}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1908,49 +1958,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>685</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>685</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1959,49 +2003,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1398</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1976</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2010,49 +2048,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7">
-        <v>5502</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>11</v>
-      </c>
-      <c r="I12" s="7">
-        <v>7528</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>19</v>
-      </c>
-      <c r="N12" s="7">
-        <v>13030</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2061,49 +2093,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
-      </c>
-      <c r="D13" s="7">
-        <v>21662</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>35</v>
-      </c>
-      <c r="I13" s="7">
-        <v>22986</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>68</v>
-      </c>
-      <c r="N13" s="7">
-        <v>44647</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2112,49 +2138,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>47</v>
-      </c>
-      <c r="D14" s="7">
-        <v>30641</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>24</v>
-      </c>
-      <c r="I14" s="7">
-        <v>16448</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>71</v>
-      </c>
-      <c r="N14" s="7">
-        <v>47089</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2163,102 +2183,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>90</v>
-      </c>
-      <c r="D15" s="7">
-        <v>59069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>72</v>
-      </c>
-      <c r="I15" s="7">
-        <v>48359</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>162</v>
-      </c>
-      <c r="N15" s="7">
-        <v>107427</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>47546</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="I16" s="7">
-        <v>1526</v>
+        <v>49101</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>145</v>
       </c>
       <c r="N16" s="7">
-        <v>1526</v>
+        <v>96647</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,49 +2281,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="D17" s="7">
-        <v>5139</v>
+        <v>57951</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="I17" s="7">
-        <v>6365</v>
+        <v>44430</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>17</v>
+        <v>155</v>
       </c>
       <c r="N17" s="7">
-        <v>11504</v>
+        <v>102381</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,49 +2332,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="D18" s="7">
-        <v>35096</v>
+        <v>13440</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="I18" s="7">
-        <v>31725</v>
+        <v>14161</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="N18" s="7">
-        <v>66821</v>
+        <v>27601</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2369,49 +2383,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>172</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>113751</v>
+        <v>1856</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>146</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>97029</v>
+        <v>2130</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>318</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>210780</v>
+        <v>3986</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>88</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2420,49 +2434,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>94521</v>
+        <v>685</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="H20" s="7">
-        <v>153</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>103855</v>
+        <v>733</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="M20" s="7">
-        <v>293</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>198376</v>
+        <v>1418</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>99</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,102 +2485,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>373</v>
+        <v>183</v>
       </c>
       <c r="D21" s="7">
-        <v>248507</v>
+        <v>121479</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H21" s="7">
-        <v>357</v>
+        <v>166</v>
       </c>
       <c r="I21" s="7">
-        <v>240500</v>
+        <v>110555</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
-        <v>730</v>
+        <v>349</v>
       </c>
       <c r="N21" s="7">
-        <v>489007</v>
+        <v>232034</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="D22" s="7">
-        <v>685</v>
+        <v>77616</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>104</v>
       </c>
       <c r="I22" s="7">
-        <v>1526</v>
+        <v>71202</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>102</v>
+        <v>68</v>
       </c>
       <c r="M22" s="7">
-        <v>3</v>
+        <v>219</v>
       </c>
       <c r="N22" s="7">
-        <v>2211</v>
+        <v>148817</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2575,49 +2589,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="D23" s="7">
-        <v>5717</v>
+        <v>77462</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>107</v>
+        <v>73</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="H23" s="7">
-        <v>11</v>
+        <v>113</v>
       </c>
       <c r="I23" s="7">
-        <v>7763</v>
+        <v>75584</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="M23" s="7">
-        <v>20</v>
+        <v>231</v>
       </c>
       <c r="N23" s="7">
-        <v>13480</v>
+        <v>153046</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2626,49 +2640,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D24" s="7">
-        <v>40598</v>
+        <v>27158</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="H24" s="7">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="I24" s="7">
-        <v>39253</v>
+        <v>25091</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="M24" s="7">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="N24" s="7">
-        <v>79851</v>
+        <v>52250</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2677,49 +2691,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>205</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>135413</v>
+        <v>3861</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>124</v>
+        <v>90</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="H25" s="7">
-        <v>181</v>
+        <v>8</v>
       </c>
       <c r="I25" s="7">
-        <v>120014</v>
+        <v>5633</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="M25" s="7">
-        <v>386</v>
+        <v>14</v>
       </c>
       <c r="N25" s="7">
-        <v>255427</v>
+        <v>9494</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2728,49 +2742,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>187</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>125162</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="H26" s="7">
-        <v>177</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>120303</v>
+        <v>793</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="M26" s="7">
-        <v>364</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>245465</v>
+        <v>793</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2779,55 +2793,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>280</v>
+      </c>
+      <c r="D27" s="7">
+        <v>186097</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="7">
+        <v>263</v>
+      </c>
+      <c r="I27" s="7">
+        <v>178303</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="7">
+        <v>543</v>
+      </c>
+      <c r="N27" s="7">
+        <v>364400</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>187</v>
+      </c>
+      <c r="D28" s="7">
+        <v>125162</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="7">
+        <v>177</v>
+      </c>
+      <c r="I28" s="7">
+        <v>120303</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M28" s="7">
+        <v>364</v>
+      </c>
+      <c r="N28" s="7">
+        <v>245465</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>205</v>
+      </c>
+      <c r="D29" s="7">
+        <v>135413</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H29" s="7">
+        <v>181</v>
+      </c>
+      <c r="I29" s="7">
+        <v>120014</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M29" s="7">
+        <v>386</v>
+      </c>
+      <c r="N29" s="7">
+        <v>255427</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>61</v>
+      </c>
+      <c r="D30" s="7">
+        <v>40598</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H30" s="7">
+        <v>58</v>
+      </c>
+      <c r="I30" s="7">
+        <v>39253</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="M30" s="7">
+        <v>119</v>
+      </c>
+      <c r="N30" s="7">
+        <v>79851</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>9</v>
+      </c>
+      <c r="D31" s="7">
+        <v>5717</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="7">
+        <v>11</v>
+      </c>
+      <c r="I31" s="7">
+        <v>7763</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M31" s="7">
+        <v>20</v>
+      </c>
+      <c r="N31" s="7">
+        <v>13480</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>685</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1526</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M32" s="7">
+        <v>3</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2211</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>463</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>307576</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="7">
         <v>429</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>288858</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="7">
         <v>892</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>596434</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>57</v>
+      <c r="O33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2840,8 +3168,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA3BF0A-FD93-4C1A-82EA-C6FF64ABC46B}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991A7D5B-2A6F-4C1F-B340-17144A447EBE}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2857,7 +3185,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3232,47 +3560,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,49 +3603,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1304</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>144</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="7">
-        <v>842</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>3</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2146</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,49 +3648,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>12</v>
-      </c>
-      <c r="D12" s="7">
-        <v>8662</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>9</v>
-      </c>
-      <c r="I12" s="7">
-        <v>6339</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>21</v>
-      </c>
-      <c r="N12" s="7">
-        <v>15002</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>145</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,49 +3693,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>31</v>
-      </c>
-      <c r="D13" s="7">
-        <v>22514</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>45</v>
-      </c>
-      <c r="I13" s="7">
-        <v>32115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>76</v>
-      </c>
-      <c r="N13" s="7">
-        <v>54629</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,49 +3738,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>44</v>
-      </c>
-      <c r="D14" s="7">
-        <v>31409</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>43</v>
-      </c>
-      <c r="I14" s="7">
-        <v>30071</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>87</v>
-      </c>
-      <c r="N14" s="7">
-        <v>61481</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,102 +3783,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>89</v>
-      </c>
-      <c r="D15" s="7">
-        <v>63890</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>98</v>
-      </c>
-      <c r="I15" s="7">
-        <v>69368</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>187</v>
-      </c>
-      <c r="N15" s="7">
-        <v>133258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>102</v>
       </c>
       <c r="D16" s="7">
-        <v>3270</v>
+        <v>70272</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="I16" s="7">
-        <v>916</v>
+        <v>73949</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>208</v>
       </c>
       <c r="N16" s="7">
-        <v>4185</v>
+        <v>144221</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,49 +3881,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>53899</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>18</v>
+        <v>156</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>20</v>
+        <v>157</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="H17" s="7">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="I17" s="7">
-        <v>4017</v>
+        <v>59668</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>161</v>
       </c>
       <c r="N17" s="7">
-        <v>4017</v>
+        <v>113567</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,49 +3932,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D18" s="7">
-        <v>33554</v>
+        <v>26238</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="H18" s="7">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="I18" s="7">
-        <v>30102</v>
+        <v>15505</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="M18" s="7">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="N18" s="7">
-        <v>63656</v>
+        <v>41743</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3691,49 +3983,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>142</v>
+        <v>2</v>
       </c>
       <c r="D19" s="7">
-        <v>96241</v>
+        <v>1304</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>199</v>
+        <v>55</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="H19" s="7">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>91725</v>
+        <v>842</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>201</v>
+        <v>54</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>202</v>
+        <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="M19" s="7">
-        <v>274</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>187965</v>
+        <v>2146</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>204</v>
+        <v>91</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,49 +4034,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>185</v>
+        <v>2</v>
       </c>
       <c r="D20" s="7">
-        <v>126840</v>
+        <v>1430</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>208</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>209</v>
+        <v>179</v>
       </c>
       <c r="H20" s="7">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>114763</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>210</v>
+        <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>211</v>
+        <v>99</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>212</v>
+        <v>180</v>
       </c>
       <c r="M20" s="7">
-        <v>348</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>241603</v>
+        <v>1430</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>214</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,102 +4085,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>382</v>
+        <v>220</v>
       </c>
       <c r="D21" s="7">
-        <v>259904</v>
+        <v>153143</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H21" s="7">
-        <v>344</v>
+        <v>214</v>
       </c>
       <c r="I21" s="7">
-        <v>241522</v>
+        <v>149965</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
-        <v>726</v>
+        <v>434</v>
       </c>
       <c r="N21" s="7">
-        <v>501426</v>
+        <v>303108</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>5</v>
+        <v>127</v>
       </c>
       <c r="D22" s="7">
-        <v>3270</v>
+        <v>87977</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I22" s="7">
-        <v>916</v>
+        <v>70885</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="M22" s="7">
-        <v>6</v>
+        <v>227</v>
       </c>
       <c r="N22" s="7">
-        <v>4185</v>
+        <v>158863</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,49 +4189,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D23" s="7">
-        <v>1304</v>
+        <v>64856</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>18</v>
+        <v>192</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>223</v>
+        <v>193</v>
       </c>
       <c r="H23" s="7">
-        <v>7</v>
+        <v>92</v>
       </c>
       <c r="I23" s="7">
-        <v>4859</v>
+        <v>64171</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>224</v>
+        <v>194</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="M23" s="7">
-        <v>9</v>
+        <v>189</v>
       </c>
       <c r="N23" s="7">
-        <v>6163</v>
+        <v>129028</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>28</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,49 +4240,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="D24" s="7">
-        <v>42216</v>
+        <v>15978</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>231</v>
+        <v>201</v>
       </c>
       <c r="H24" s="7">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I24" s="7">
-        <v>36441</v>
+        <v>20936</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>232</v>
+        <v>202</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>233</v>
+        <v>203</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="M24" s="7">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="N24" s="7">
-        <v>78658</v>
+        <v>36915</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>237</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3999,49 +4291,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="D25" s="7">
-        <v>118755</v>
+        <v>0</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>55</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>238</v>
+        <v>99</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="H25" s="7">
-        <v>177</v>
+        <v>6</v>
       </c>
       <c r="I25" s="7">
-        <v>123839</v>
+        <v>4017</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="M25" s="7">
-        <v>350</v>
+        <v>6</v>
       </c>
       <c r="N25" s="7">
-        <v>242595</v>
+        <v>4017</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4050,49 +4342,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>229</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>158250</v>
+        <v>1840</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="H26" s="7">
-        <v>206</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>144835</v>
+        <v>916</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>250</v>
+        <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="M26" s="7">
-        <v>435</v>
+        <v>4</v>
       </c>
       <c r="N26" s="7">
-        <v>303084</v>
+        <v>2755</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>252</v>
+        <v>220</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4101,55 +4393,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>251</v>
+      </c>
+      <c r="D27" s="7">
+        <v>170651</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="7">
+        <v>228</v>
+      </c>
+      <c r="I27" s="7">
+        <v>160925</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="7">
+        <v>479</v>
+      </c>
+      <c r="N27" s="7">
+        <v>331577</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>229</v>
+      </c>
+      <c r="D28" s="7">
+        <v>158250</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H28" s="7">
+        <v>206</v>
+      </c>
+      <c r="I28" s="7">
+        <v>144835</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M28" s="7">
+        <v>435</v>
+      </c>
+      <c r="N28" s="7">
+        <v>303084</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>173</v>
+      </c>
+      <c r="D29" s="7">
+        <v>118755</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H29" s="7">
+        <v>177</v>
+      </c>
+      <c r="I29" s="7">
+        <v>123839</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M29" s="7">
+        <v>350</v>
+      </c>
+      <c r="N29" s="7">
+        <v>242595</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>62</v>
+      </c>
+      <c r="D30" s="7">
+        <v>42216</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H30" s="7">
+        <v>51</v>
+      </c>
+      <c r="I30" s="7">
+        <v>36441</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="M30" s="7">
+        <v>113</v>
+      </c>
+      <c r="N30" s="7">
+        <v>78658</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>2</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1304</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H31" s="7">
+        <v>7</v>
+      </c>
+      <c r="I31" s="7">
+        <v>4859</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M31" s="7">
+        <v>9</v>
+      </c>
+      <c r="N31" s="7">
+        <v>6163</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>5</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3270</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>916</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="M32" s="7">
+        <v>6</v>
+      </c>
+      <c r="N32" s="7">
+        <v>4185</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>471</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>323795</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="7">
         <v>442</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>310890</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="7">
         <v>913</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>634685</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>57</v>
+      <c r="O33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4162,8 +4768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{716AFE9A-2237-41F6-86E6-95C8C1CF179D}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCAD6D68-AC91-4D42-9D96-EB00D8E2ACDB}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4179,7 +4785,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4554,47 +5160,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,49 +5203,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>2</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
-      </c>
-      <c r="N11" s="7">
-        <v>3251</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,49 +5248,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>18</v>
-      </c>
-      <c r="D12" s="7">
-        <v>12373</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>14</v>
-      </c>
-      <c r="I12" s="7">
-        <v>10007</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>32</v>
-      </c>
-      <c r="N12" s="7">
-        <v>22380</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,49 +5293,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>39</v>
-      </c>
-      <c r="D13" s="7">
-        <v>27081</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>53</v>
-      </c>
-      <c r="I13" s="7">
-        <v>34176</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>92</v>
-      </c>
-      <c r="N13" s="7">
-        <v>61258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,49 +5338,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>50</v>
-      </c>
-      <c r="D14" s="7">
-        <v>34296</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>284</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>61</v>
-      </c>
-      <c r="I14" s="7">
-        <v>41012</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>286</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>287</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>111</v>
-      </c>
-      <c r="N14" s="7">
-        <v>75308</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>289</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,102 +5383,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>110</v>
-      </c>
-      <c r="D15" s="7">
-        <v>75866</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>130</v>
-      </c>
-      <c r="I15" s="7">
-        <v>86331</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>240</v>
-      </c>
-      <c r="N15" s="7">
-        <v>162197</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>113</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>79786</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>18</v>
+        <v>263</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>20</v>
+        <v>264</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>291</v>
+        <v>265</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>121</v>
       </c>
       <c r="I16" s="7">
-        <v>2859</v>
+        <v>84058</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="M16" s="7">
-        <v>4</v>
+        <v>234</v>
       </c>
       <c r="N16" s="7">
-        <v>2859</v>
+        <v>163844</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,49 +5481,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="D17" s="7">
-        <v>6040</v>
+        <v>65572</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>297</v>
+        <v>272</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>274</v>
       </c>
       <c r="H17" s="7">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I17" s="7">
-        <v>6151</v>
+        <v>69075</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>300</v>
+        <v>275</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>301</v>
+        <v>276</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>21</v>
       </c>
       <c r="M17" s="7">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="N17" s="7">
-        <v>12192</v>
+        <v>134647</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>61</v>
+        <v>277</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>23</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4962,49 +5532,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D18" s="7">
-        <v>35804</v>
+        <v>28094</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>304</v>
+        <v>280</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>305</v>
+        <v>281</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>306</v>
+        <v>282</v>
       </c>
       <c r="H18" s="7">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="I18" s="7">
-        <v>40726</v>
+        <v>23509</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>123</v>
+        <v>283</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="M18" s="7">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="N18" s="7">
-        <v>76530</v>
+        <v>51603</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5013,49 +5583,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>153</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>113610</v>
+        <v>4542</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="H19" s="7">
-        <v>143</v>
+        <v>4</v>
       </c>
       <c r="I19" s="7">
-        <v>103095</v>
+        <v>2730</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="M19" s="7">
+        <v>10</v>
+      </c>
+      <c r="N19" s="7">
+        <v>7272</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="N19" s="7">
-        <v>216705</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>319</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5064,49 +5634,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>116219</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>321</v>
+        <v>55</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>322</v>
+        <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>323</v>
+        <v>298</v>
       </c>
       <c r="H20" s="7">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>105808</v>
+        <v>792</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>324</v>
+        <v>100</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>325</v>
+        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>132</v>
+        <v>299</v>
       </c>
       <c r="M20" s="7">
-        <v>310</v>
+        <v>1</v>
       </c>
       <c r="N20" s="7">
-        <v>222027</v>
+        <v>792</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>326</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>327</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>328</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5115,102 +5685,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>368</v>
+        <v>249</v>
       </c>
       <c r="D21" s="7">
-        <v>271673</v>
+        <v>177994</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H21" s="7">
-        <v>362</v>
+        <v>258</v>
       </c>
       <c r="I21" s="7">
-        <v>258639</v>
+        <v>180163</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
-        <v>730</v>
+        <v>507</v>
       </c>
       <c r="N21" s="7">
-        <v>530312</v>
+        <v>358158</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>70730</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>20</v>
+        <v>301</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>222</v>
+        <v>302</v>
       </c>
       <c r="H22" s="7">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="I22" s="7">
-        <v>2859</v>
+        <v>62763</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>180</v>
+        <v>303</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>221</v>
+        <v>304</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>112</v>
+        <v>305</v>
       </c>
       <c r="M22" s="7">
-        <v>4</v>
+        <v>187</v>
       </c>
       <c r="N22" s="7">
-        <v>2859</v>
+        <v>133492</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>329</v>
+        <v>66</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>104</v>
+        <v>235</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>65</v>
+        <v>306</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,49 +5789,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="D23" s="7">
-        <v>8156</v>
+        <v>75119</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>70</v>
+        <v>307</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
       <c r="H23" s="7">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="I23" s="7">
-        <v>7286</v>
+        <v>68197</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
       <c r="M23" s="7">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="N23" s="7">
-        <v>15442</v>
+        <v>143316</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5270,49 +5840,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="D24" s="7">
-        <v>48177</v>
+        <v>20083</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="H24" s="7">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="I24" s="7">
-        <v>50733</v>
+        <v>27225</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="M24" s="7">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="N24" s="7">
-        <v>98910</v>
+        <v>47307</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>194</v>
+        <v>324</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5321,49 +5891,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>192</v>
+        <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>140691</v>
+        <v>3614</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>346</v>
+        <v>208</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="H25" s="7">
-        <v>196</v>
+        <v>6</v>
       </c>
       <c r="I25" s="7">
-        <v>137271</v>
+        <v>4556</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="M25" s="7">
-        <v>388</v>
+        <v>11</v>
       </c>
       <c r="N25" s="7">
-        <v>277963</v>
+        <v>8170</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5372,49 +5942,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>150515</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>354</v>
+        <v>55</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>355</v>
+        <v>99</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>356</v>
+        <v>220</v>
       </c>
       <c r="H26" s="7">
-        <v>212</v>
+        <v>3</v>
       </c>
       <c r="I26" s="7">
-        <v>146820</v>
+        <v>2067</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>358</v>
+        <v>142</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>359</v>
+        <v>334</v>
       </c>
       <c r="M26" s="7">
-        <v>421</v>
+        <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>297335</v>
+        <v>2067</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>360</v>
+        <v>49</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>362</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5423,55 +5993,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>229</v>
+      </c>
+      <c r="D27" s="7">
+        <v>169545</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="7">
+        <v>234</v>
+      </c>
+      <c r="I27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="7">
+        <v>463</v>
+      </c>
+      <c r="N27" s="7">
+        <v>334352</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>209</v>
+      </c>
+      <c r="D28" s="7">
+        <v>150515</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H28" s="7">
+        <v>212</v>
+      </c>
+      <c r="I28" s="7">
+        <v>146820</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="M28" s="7">
+        <v>421</v>
+      </c>
+      <c r="N28" s="7">
+        <v>297335</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>192</v>
+      </c>
+      <c r="D29" s="7">
+        <v>140691</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H29" s="7">
+        <v>196</v>
+      </c>
+      <c r="I29" s="7">
+        <v>137271</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="M29" s="7">
+        <v>388</v>
+      </c>
+      <c r="N29" s="7">
+        <v>277963</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>66</v>
+      </c>
+      <c r="D30" s="7">
+        <v>48177</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H30" s="7">
+        <v>70</v>
+      </c>
+      <c r="I30" s="7">
+        <v>50733</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="M30" s="7">
+        <v>136</v>
+      </c>
+      <c r="N30" s="7">
+        <v>98910</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>11</v>
+      </c>
+      <c r="D31" s="7">
+        <v>8156</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H31" s="7">
+        <v>10</v>
+      </c>
+      <c r="I31" s="7">
+        <v>7286</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="M31" s="7">
+        <v>21</v>
+      </c>
+      <c r="N31" s="7">
+        <v>15442</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H32" s="7">
+        <v>4</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2859</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="M32" s="7">
+        <v>4</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2859</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>478</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>347539</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="7">
         <v>492</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>344970</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="7">
         <v>970</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>692509</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>57</v>
+      <c r="O33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C16-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C16-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37936319-6755-4F88-9258-1F795F55EAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FCDE81D-51F3-4E74-A569-366E4B1816E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4CE3D0B4-05BD-4F1F-9386-CB8907C85B54}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7A3201DA-9A5D-4FB8-97CE-14EDE2AA7EB3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="372">
   <si>
     <t>Menores según frecuencia de haber podido estar al aire libre en 2007 (Tasa respuesta: 42,4%)</t>
   </si>
@@ -97,82 +97,82 @@
     <t>39,14%</t>
   </si>
   <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
+    <t>32,55%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
   </si>
   <si>
     <t>44,41%</t>
   </si>
   <si>
-    <t>36,86%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
   </si>
   <si>
     <t>41,65%</t>
   </si>
   <si>
-    <t>36,98%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
   </si>
   <si>
     <t>47,7%</t>
   </si>
   <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
   </si>
   <si>
     <t>40,19%</t>
   </si>
   <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
   </si>
   <si>
     <t>44,12%</t>
   </si>
   <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>49,5%</t>
   </si>
   <si>
     <t>11,06%</t>
   </si>
   <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
   </si>
   <si>
     <t>12,81%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
   </si>
   <si>
     <t>11,9%</t>
   </si>
   <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
   </si>
   <si>
     <t>1,53%</t>
@@ -187,976 +187,973 @@
     <t>1,93%</t>
   </si>
   <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>36,8%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>46,33%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 43,5%)</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>52,54%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>51,48%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido estar al aire libre en 2016 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>48,07%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
     <t>0,62%</t>
   </si>
   <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>45,06%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>46,67%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 43,5%)</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>57,71%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>43,91%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>42,02%</t>
-  </si>
-  <si>
-    <t>51,27%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>32,69%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido estar al aire libre en 2015 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>50,18%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>47,48%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>44,28%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>48,58%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>46,05%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>44,86%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>44,45%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
+    <t>1,84%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>1,02%</t>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
   </si>
 </sst>
 </file>
@@ -1568,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCF627C-451E-4F4B-82CE-389E58DE8C8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66192BD8-86BB-443B-AC09-A95CB3D3C65C}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2470,13 +2467,13 @@
         <v>1418</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2491,13 +2488,13 @@
         <v>121479</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>166</v>
@@ -2506,13 +2503,13 @@
         <v>110555</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>349</v>
@@ -2521,18 +2518,18 @@
         <v>232034</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2544,13 +2541,13 @@
         <v>77616</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H22" s="7">
         <v>104</v>
@@ -2559,13 +2556,13 @@
         <v>71202</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M22" s="7">
         <v>219</v>
@@ -2574,13 +2571,13 @@
         <v>148817</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2592,13 @@
         <v>77462</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H23" s="7">
         <v>113</v>
@@ -2610,13 +2607,13 @@
         <v>75584</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M23" s="7">
         <v>231</v>
@@ -2625,13 +2622,13 @@
         <v>153046</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,13 +2643,13 @@
         <v>27158</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H24" s="7">
         <v>37</v>
@@ -2661,13 +2658,13 @@
         <v>25091</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M24" s="7">
         <v>78</v>
@@ -2676,13 +2673,13 @@
         <v>52250</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,13 +2694,13 @@
         <v>3861</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2712,13 +2709,13 @@
         <v>5633</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -2727,13 +2724,13 @@
         <v>9494</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,10 +2748,10 @@
         <v>55</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2799,13 +2796,13 @@
         <v>186097</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>263</v>
@@ -2814,13 +2811,13 @@
         <v>178303</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>543</v>
@@ -2829,13 +2826,13 @@
         <v>364400</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +3002,13 @@
         <v>5717</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H31" s="7">
         <v>11</v>
@@ -3020,13 +3017,13 @@
         <v>7763</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M31" s="7">
         <v>20</v>
@@ -3035,13 +3032,13 @@
         <v>13480</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,7 +3059,7 @@
         <v>55</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H32" s="7">
         <v>2</v>
@@ -3071,13 +3068,13 @@
         <v>1526</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>141</v>
+        <v>59</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -3086,13 +3083,13 @@
         <v>2211</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,13 +3104,13 @@
         <v>307576</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>429</v>
@@ -3122,13 +3119,13 @@
         <v>288858</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>892</v>
@@ -3137,18 +3134,18 @@
         <v>596434</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3168,7 +3165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991A7D5B-2A6F-4C1F-B340-17144A447EBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149671-9D56-4FDF-812C-B407F7ECB874}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3185,7 +3182,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3836,13 +3833,13 @@
         <v>70272</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H16" s="7">
         <v>106</v>
@@ -3851,13 +3848,13 @@
         <v>73949</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>208</v>
@@ -3866,13 +3863,13 @@
         <v>144221</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,13 +3884,13 @@
         <v>53899</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H17" s="7">
         <v>85</v>
@@ -3902,13 +3899,13 @@
         <v>59668</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M17" s="7">
         <v>161</v>
@@ -3917,13 +3914,13 @@
         <v>113567</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3938,13 +3935,13 @@
         <v>26238</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H18" s="7">
         <v>22</v>
@@ -3953,13 +3950,13 @@
         <v>15505</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M18" s="7">
         <v>60</v>
@@ -3968,13 +3965,13 @@
         <v>41743</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3989,13 +3986,13 @@
         <v>1304</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>174</v>
+        <v>130</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4010,7 +4007,7 @@
         <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -4019,13 +4016,13 @@
         <v>2146</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,13 +4037,13 @@
         <v>1430</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4058,10 +4055,10 @@
         <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4076,7 +4073,7 @@
         <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4088,13 @@
         <v>153143</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>214</v>
@@ -4106,13 +4103,13 @@
         <v>149965</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>434</v>
@@ -4121,18 +4118,18 @@
         <v>303108</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4144,13 +4141,13 @@
         <v>87977</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H22" s="7">
         <v>100</v>
@@ -4159,13 +4156,13 @@
         <v>70885</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M22" s="7">
         <v>227</v>
@@ -4174,13 +4171,13 @@
         <v>158863</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4192,13 @@
         <v>64856</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H23" s="7">
         <v>92</v>
@@ -4210,13 +4207,13 @@
         <v>64171</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M23" s="7">
         <v>189</v>
@@ -4225,13 +4222,13 @@
         <v>129028</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4243,13 @@
         <v>15978</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H24" s="7">
         <v>29</v>
@@ -4261,13 +4258,13 @@
         <v>20936</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M24" s="7">
         <v>53</v>
@@ -4276,13 +4273,13 @@
         <v>36915</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,10 +4297,10 @@
         <v>55</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H25" s="7">
         <v>6</v>
@@ -4312,13 +4309,13 @@
         <v>4017</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -4327,13 +4324,13 @@
         <v>4017</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4345,13 @@
         <v>1840</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>217</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4363,13 +4360,13 @@
         <v>916</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>218</v>
+        <v>52</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -4378,13 +4375,13 @@
         <v>2755</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,13 +4396,13 @@
         <v>170651</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>228</v>
@@ -4414,13 +4411,13 @@
         <v>160925</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>479</v>
@@ -4429,13 +4426,13 @@
         <v>331577</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4449,13 @@
         <v>158250</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>112</v>
+        <v>221</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H28" s="7">
         <v>206</v>
@@ -4467,13 +4464,13 @@
         <v>144835</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="M28" s="7">
         <v>435</v>
@@ -4482,13 +4479,13 @@
         <v>303084</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,13 +4500,13 @@
         <v>118755</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H29" s="7">
         <v>177</v>
@@ -4518,13 +4515,13 @@
         <v>123839</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M29" s="7">
         <v>350</v>
@@ -4533,13 +4530,13 @@
         <v>242595</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,13 +4551,13 @@
         <v>42216</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H30" s="7">
         <v>51</v>
@@ -4569,13 +4566,13 @@
         <v>36441</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M30" s="7">
         <v>113</v>
@@ -4584,13 +4581,13 @@
         <v>78658</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4602,13 @@
         <v>1304</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -4620,13 +4617,13 @@
         <v>4859</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>97</v>
+        <v>249</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M31" s="7">
         <v>9</v>
@@ -4635,7 +4632,7 @@
         <v>6163</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>253</v>
@@ -4677,7 +4674,7 @@
         <v>55</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>259</v>
+        <v>51</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -4689,10 +4686,10 @@
         <v>57</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4704,13 @@
         <v>323795</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>442</v>
@@ -4722,13 +4719,13 @@
         <v>310890</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>913</v>
@@ -4737,18 +4734,18 @@
         <v>634685</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4768,7 +4765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCAD6D68-AC91-4D42-9D96-EB00D8E2ACDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81951A50-FB98-4CB9-AC46-A5D4FD3E2FDF}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4785,7 +4782,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5436,13 +5433,13 @@
         <v>79786</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H16" s="7">
         <v>121</v>
@@ -5451,13 +5448,13 @@
         <v>84058</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M16" s="7">
         <v>234</v>
@@ -5466,13 +5463,13 @@
         <v>163844</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,13 +5484,13 @@
         <v>65572</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H17" s="7">
         <v>100</v>
@@ -5502,13 +5499,13 @@
         <v>69075</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="M17" s="7">
         <v>191</v>
@@ -5523,7 +5520,7 @@
         <v>278</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>279</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,13 +5535,13 @@
         <v>28094</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H18" s="7">
         <v>32</v>
@@ -5553,13 +5550,13 @@
         <v>23509</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M18" s="7">
         <v>71</v>
@@ -5568,13 +5565,13 @@
         <v>51603</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,13 +5586,13 @@
         <v>4542</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -5604,13 +5601,13 @@
         <v>2730</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -5619,13 +5616,13 @@
         <v>7272</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,10 +5640,10 @@
         <v>55</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5661,7 +5658,7 @@
         <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5676,7 +5673,7 @@
         <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5691,13 +5688,13 @@
         <v>177994</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>258</v>
@@ -5706,13 +5703,13 @@
         <v>180163</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>507</v>
@@ -5721,18 +5718,18 @@
         <v>358158</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5744,13 +5741,13 @@
         <v>70730</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H22" s="7">
         <v>91</v>
@@ -5759,13 +5756,13 @@
         <v>62763</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="M22" s="7">
         <v>187</v>
@@ -5774,10 +5771,10 @@
         <v>133492</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>235</v>
+        <v>305</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>306</v>
@@ -5897,10 +5894,10 @@
         <v>3614</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>326</v>
@@ -5951,10 +5948,10 @@
         <v>55</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -5966,7 +5963,7 @@
         <v>333</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>334</v>
@@ -5978,13 +5975,13 @@
         <v>2067</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>49</v>
+        <v>335</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5999,13 +5996,13 @@
         <v>169545</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>234</v>
@@ -6014,13 +6011,13 @@
         <v>164807</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>463</v>
@@ -6029,13 +6026,13 @@
         <v>334352</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6052,13 +6049,13 @@
         <v>150515</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H28" s="7">
         <v>212</v>
@@ -6067,7 +6064,7 @@
         <v>146820</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>340</v>
+        <v>162</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>341</v>
@@ -6106,10 +6103,10 @@
         <v>346</v>
       </c>
       <c r="F29" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="H29" s="7">
         <v>196</v>
@@ -6118,13 +6115,13 @@
         <v>137271</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="M29" s="7">
         <v>388</v>
@@ -6133,13 +6130,13 @@
         <v>277963</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6154,13 +6151,13 @@
         <v>48177</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="H30" s="7">
         <v>70</v>
@@ -6169,13 +6166,13 @@
         <v>50733</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>359</v>
       </c>
       <c r="M30" s="7">
         <v>136</v>
@@ -6184,13 +6181,13 @@
         <v>98910</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,10 +6220,10 @@
         <v>365</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="M31" s="7">
         <v>21</v>
@@ -6238,10 +6235,10 @@
         <v>101</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>94</v>
+        <v>248</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>368</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,10 +6256,10 @@
         <v>55</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H32" s="7">
         <v>4</v>
@@ -6271,13 +6268,13 @@
         <v>2859</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -6286,13 +6283,13 @@
         <v>2859</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,13 +6304,13 @@
         <v>347539</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>492</v>
@@ -6322,13 +6319,13 @@
         <v>344970</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>970</v>
@@ -6337,18 +6334,18 @@
         <v>692509</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C16-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C16-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FCDE81D-51F3-4E74-A569-366E4B1816E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF92269A-7289-4BF0-B0B6-14AA987EB901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7A3201DA-9A5D-4FB8-97CE-14EDE2AA7EB3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{B1611076-FAEA-447C-BE0B-D3DE106B80E7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="371">
   <si>
     <t>Menores según frecuencia de haber podido estar al aire libre en 2007 (Tasa respuesta: 42,4%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,1066 +94,1063 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>36,71%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
     <t>39,14%</t>
   </si>
   <si>
-    <t>32,55%</t>
-  </si>
-  <si>
-    <t>46,62%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>46,44%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>54,63%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>42,0%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
   </si>
   <si>
     <t>36,98%</t>
   </si>
   <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>41,65%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>54,94%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>49,5%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>39,61%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 43,5%)</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>52,64%</t>
+  </si>
+  <si>
+    <t>47,58%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>42,02%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>44,05%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>45,57%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
   </si>
   <si>
     <t>3,02%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>41,71%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>53,39%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>36,68%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de haber podido estar al aire libre en 2016 (Tasa respuesta: 45,63%)</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>52,53%</t>
+  </si>
+  <si>
+    <t>44,82%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>45,75%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>48,32%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
   </si>
   <si>
     <t>36,11%</t>
   </si>
   <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
-  </si>
-  <si>
-    <t>46,33%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
   </si>
   <si>
     <t>2,23%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>44,03%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido estar al aire libre en 2012 (Tasa respuesta: 43,5%)</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>52,4%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>56,65%</t>
-  </si>
-  <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>52,54%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>57,98%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>32,11%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>53,64%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de haber podido estar al aire libre en 2016 (Tasa respuesta: 45,63%)</t>
-  </si>
-  <si>
-    <t>44,82%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>40,91%</t>
-  </si>
-  <si>
-    <t>53,42%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>48,07%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>48,58%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>46,05%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>44,86%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
+    <t>1,37%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
+    <t>1,02%</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1562,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66192BD8-86BB-443B-AC09-A95CB3D3C65C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B574B77-15DB-4B87-A2E9-B43E17DC8CF2}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2227,10 +2224,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D16" s="7">
-        <v>47546</v>
+        <v>49101</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2242,10 +2239,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I16" s="7">
-        <v>49101</v>
+        <v>47546</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2278,10 +2275,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="D17" s="7">
-        <v>57951</v>
+        <v>44430</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2293,10 +2290,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="I17" s="7">
-        <v>44430</v>
+        <v>57951</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2329,10 +2326,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D18" s="7">
-        <v>13440</v>
+        <v>14161</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2344,10 +2341,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I18" s="7">
-        <v>14161</v>
+        <v>13440</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2383,7 +2380,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>1856</v>
+        <v>2130</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -2398,7 +2395,7 @@
         <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>2130</v>
+        <v>1856</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
@@ -2434,7 +2431,7 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>685</v>
+        <v>733</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>54</v>
@@ -2449,7 +2446,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>733</v>
+        <v>685</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>57</v>
@@ -2467,13 +2464,13 @@
         <v>1418</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2482,34 +2479,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>166</v>
+      </c>
+      <c r="D21" s="7">
+        <v>110555</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="7">
         <v>183</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>121479</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>166</v>
-      </c>
-      <c r="I21" s="7">
-        <v>110555</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
         <v>349</v>
@@ -2518,51 +2515,51 @@
         <v>232034</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>104</v>
+      </c>
+      <c r="D22" s="7">
+        <v>71202</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="7">
         <v>115</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>77616</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="7">
-        <v>104</v>
-      </c>
-      <c r="I22" s="7">
-        <v>71202</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M22" s="7">
         <v>219</v>
@@ -2571,13 +2568,13 @@
         <v>148817</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2586,34 +2583,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>113</v>
+      </c>
+      <c r="D23" s="7">
+        <v>75584</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="7">
         <v>118</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>77462</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="7">
-        <v>113</v>
-      </c>
-      <c r="I23" s="7">
-        <v>75584</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M23" s="7">
         <v>231</v>
@@ -2622,13 +2619,13 @@
         <v>153046</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2637,34 +2634,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>37</v>
+      </c>
+      <c r="D24" s="7">
+        <v>25091</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="7">
         <v>41</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>27158</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" s="7">
-        <v>37</v>
-      </c>
-      <c r="I24" s="7">
-        <v>25091</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M24" s="7">
         <v>78</v>
@@ -2673,13 +2670,13 @@
         <v>52250</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,34 +2685,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>8</v>
+      </c>
+      <c r="D25" s="7">
+        <v>5633</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="7">
         <v>6</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>3861</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="7">
-        <v>8</v>
-      </c>
-      <c r="I25" s="7">
-        <v>5633</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M25" s="7">
         <v>14</v>
@@ -2724,13 +2721,13 @@
         <v>9494</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,34 +2736,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>793</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>793</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -2775,13 +2772,13 @@
         <v>793</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,34 +2787,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>263</v>
+      </c>
+      <c r="D27" s="7">
+        <v>178303</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="7">
         <v>280</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>186097</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>263</v>
-      </c>
-      <c r="I27" s="7">
-        <v>178303</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M27" s="7">
         <v>543</v>
@@ -2826,13 +2823,13 @@
         <v>364400</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2843,13 +2840,13 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D28" s="7">
-        <v>125162</v>
+        <v>120303</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>105</v>
@@ -2858,19 +2855,19 @@
         <v>106</v>
       </c>
       <c r="H28" s="7">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="I28" s="7">
-        <v>120303</v>
+        <v>125162</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M28" s="7">
         <v>364</v>
@@ -2879,13 +2876,13 @@
         <v>245465</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2894,34 +2891,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>181</v>
+      </c>
+      <c r="D29" s="7">
+        <v>120014</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="H29" s="7">
         <v>205</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>135413</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="H29" s="7">
-        <v>181</v>
-      </c>
-      <c r="I29" s="7">
-        <v>120014</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M29" s="7">
         <v>386</v>
@@ -2930,13 +2927,13 @@
         <v>255427</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2945,34 +2942,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D30" s="7">
+        <v>39253</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" s="7">
+        <v>61</v>
+      </c>
+      <c r="I30" s="7">
         <v>40598</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H30" s="7">
-        <v>58</v>
-      </c>
-      <c r="I30" s="7">
-        <v>39253</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M30" s="7">
         <v>119</v>
@@ -2981,13 +2978,13 @@
         <v>79851</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2996,34 +2993,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>11</v>
+      </c>
+      <c r="D31" s="7">
+        <v>7763</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" s="7">
         <v>9</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>5717</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H31" s="7">
-        <v>11</v>
-      </c>
-      <c r="I31" s="7">
-        <v>7763</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M31" s="7">
         <v>20</v>
@@ -3032,13 +3029,13 @@
         <v>13480</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3047,34 +3044,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>685</v>
+        <v>1526</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H32" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" s="7">
-        <v>1526</v>
+        <v>685</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>59</v>
+        <v>142</v>
       </c>
       <c r="M32" s="7">
         <v>3</v>
@@ -3083,13 +3080,13 @@
         <v>2211</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3098,34 +3095,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>429</v>
+      </c>
+      <c r="D33" s="7">
+        <v>288858</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="7">
         <v>463</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>307576</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="7">
-        <v>429</v>
-      </c>
-      <c r="I33" s="7">
-        <v>288858</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M33" s="7">
         <v>892</v>
@@ -3134,18 +3131,18 @@
         <v>596434</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3165,7 +3162,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C149671-9D56-4FDF-812C-B407F7ECB874}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11B101D2-0A4E-45A3-9BA9-A29A4B968A7D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3182,7 +3179,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3827,34 +3824,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>106</v>
+      </c>
+      <c r="D16" s="7">
+        <v>73949</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H16" s="7">
         <v>102</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>70272</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H16" s="7">
-        <v>106</v>
-      </c>
-      <c r="I16" s="7">
-        <v>73949</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M16" s="7">
         <v>208</v>
@@ -3863,13 +3860,13 @@
         <v>144221</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,34 +3875,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>85</v>
+      </c>
+      <c r="D17" s="7">
+        <v>59668</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" s="7">
         <v>76</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>53899</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H17" s="7">
-        <v>85</v>
-      </c>
-      <c r="I17" s="7">
-        <v>59668</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M17" s="7">
         <v>161</v>
@@ -3914,13 +3911,13 @@
         <v>113567</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,34 +3926,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>22</v>
+      </c>
+      <c r="D18" s="7">
+        <v>15505</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H18" s="7">
         <v>38</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>26238</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H18" s="7">
-        <v>22</v>
-      </c>
-      <c r="I18" s="7">
-        <v>15505</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="M18" s="7">
         <v>60</v>
@@ -3965,13 +3962,13 @@
         <v>41743</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,34 +3977,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>1304</v>
+        <v>842</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>842</v>
+        <v>1304</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -4016,13 +4013,13 @@
         <v>2146</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>48</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4031,34 +4028,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H20" s="7">
         <v>2</v>
       </c>
-      <c r="D20" s="7">
+      <c r="I20" s="7">
         <v>1430</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="J20" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -4067,13 +4064,13 @@
         <v>1430</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,34 +4079,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>214</v>
+      </c>
+      <c r="D21" s="7">
+        <v>149965</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="7">
         <v>220</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>153143</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>214</v>
-      </c>
-      <c r="I21" s="7">
-        <v>149965</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
         <v>434</v>
@@ -4118,51 +4115,51 @@
         <v>303108</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>100</v>
+      </c>
+      <c r="D22" s="7">
+        <v>70885</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="H22" s="7">
         <v>127</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>87977</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="H22" s="7">
-        <v>100</v>
-      </c>
-      <c r="I22" s="7">
-        <v>70885</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M22" s="7">
         <v>227</v>
@@ -4171,13 +4168,13 @@
         <v>158863</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4186,34 +4183,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>92</v>
+      </c>
+      <c r="D23" s="7">
+        <v>64171</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H23" s="7">
         <v>97</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>64856</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H23" s="7">
-        <v>92</v>
-      </c>
-      <c r="I23" s="7">
-        <v>64171</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="M23" s="7">
         <v>189</v>
@@ -4222,13 +4219,13 @@
         <v>129028</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,34 +4234,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>29</v>
+      </c>
+      <c r="D24" s="7">
+        <v>20936</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H24" s="7">
         <v>24</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>15978</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H24" s="7">
-        <v>29</v>
-      </c>
-      <c r="I24" s="7">
-        <v>20936</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M24" s="7">
         <v>53</v>
@@ -4273,13 +4270,13 @@
         <v>36915</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,34 +4285,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>4017</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H25" s="7">
-        <v>6</v>
-      </c>
-      <c r="I25" s="7">
-        <v>4017</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="K25" s="7" t="s">
-        <v>209</v>
+        <v>101</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -4324,13 +4321,13 @@
         <v>4017</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,34 +4336,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>916</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H26" s="7">
         <v>3</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>1840</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>916</v>
-      </c>
       <c r="J26" s="7" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>55</v>
+        <v>221</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M26" s="7">
         <v>4</v>
@@ -4375,13 +4372,13 @@
         <v>2755</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,34 +4387,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>228</v>
+      </c>
+      <c r="D27" s="7">
+        <v>160925</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="7">
         <v>251</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>170651</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>228</v>
-      </c>
-      <c r="I27" s="7">
-        <v>160925</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M27" s="7">
         <v>479</v>
@@ -4426,13 +4423,13 @@
         <v>331577</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,34 +4440,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>206</v>
+      </c>
+      <c r="D28" s="7">
+        <v>144835</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H28" s="7">
         <v>229</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>158250</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H28" s="7">
-        <v>206</v>
-      </c>
-      <c r="I28" s="7">
-        <v>144835</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M28" s="7">
         <v>435</v>
@@ -4479,13 +4476,13 @@
         <v>303084</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,34 +4491,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>177</v>
+      </c>
+      <c r="D29" s="7">
+        <v>123839</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H29" s="7">
         <v>173</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>118755</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="H29" s="7">
-        <v>177</v>
-      </c>
-      <c r="I29" s="7">
-        <v>123839</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="M29" s="7">
         <v>350</v>
@@ -4530,13 +4527,13 @@
         <v>242595</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,34 +4542,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>51</v>
+      </c>
+      <c r="D30" s="7">
+        <v>36441</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="H30" s="7">
         <v>62</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>42216</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H30" s="7">
-        <v>51</v>
-      </c>
-      <c r="I30" s="7">
-        <v>36441</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M30" s="7">
         <v>113</v>
@@ -4581,13 +4578,13 @@
         <v>78658</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4596,34 +4593,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>7</v>
+      </c>
+      <c r="D31" s="7">
+        <v>4859</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H31" s="7">
         <v>2</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>1304</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="J31" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="H31" s="7">
-        <v>7</v>
-      </c>
-      <c r="I31" s="7">
-        <v>4859</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="L31" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="M31" s="7">
         <v>9</v>
@@ -4632,13 +4629,13 @@
         <v>6163</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,34 +4644,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>916</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H32" s="7">
         <v>5</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>3270</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H32" s="7">
-        <v>1</v>
-      </c>
-      <c r="I32" s="7">
-        <v>916</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>55</v>
+        <v>262</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>51</v>
+        <v>263</v>
       </c>
       <c r="M32" s="7">
         <v>6</v>
@@ -4683,13 +4680,13 @@
         <v>4185</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>260</v>
+        <v>138</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,34 +4695,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>442</v>
+      </c>
+      <c r="D33" s="7">
+        <v>310890</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="7">
         <v>471</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>323795</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="7">
-        <v>442</v>
-      </c>
-      <c r="I33" s="7">
-        <v>310890</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M33" s="7">
         <v>913</v>
@@ -4734,18 +4731,18 @@
         <v>634685</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4765,7 +4762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81951A50-FB98-4CB9-AC46-A5D4FD3E2FDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70348C4C-07CF-45AE-A01B-41034F4D69B4}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4782,7 +4779,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5427,34 +5424,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>121</v>
+      </c>
+      <c r="D16" s="7">
+        <v>84058</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H16" s="7">
         <v>113</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>79786</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H16" s="7">
-        <v>121</v>
-      </c>
-      <c r="I16" s="7">
-        <v>84058</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="M16" s="7">
         <v>234</v>
@@ -5463,13 +5460,13 @@
         <v>163844</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,34 +5475,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>100</v>
+      </c>
+      <c r="D17" s="7">
+        <v>69075</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H17" s="7">
         <v>91</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>65572</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H17" s="7">
-        <v>100</v>
-      </c>
-      <c r="I17" s="7">
-        <v>69075</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M17" s="7">
         <v>191</v>
@@ -5514,13 +5511,13 @@
         <v>134647</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>62</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,34 +5526,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>32</v>
+      </c>
+      <c r="D18" s="7">
+        <v>23509</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H18" s="7">
         <v>39</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>28094</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H18" s="7">
-        <v>32</v>
-      </c>
-      <c r="I18" s="7">
-        <v>23509</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M18" s="7">
         <v>71</v>
@@ -5565,13 +5562,13 @@
         <v>51603</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5580,34 +5577,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>4</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2730</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H19" s="7">
         <v>6</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>4542</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="H19" s="7">
-        <v>4</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2730</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -5616,13 +5613,13 @@
         <v>7272</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>294</v>
+        <v>100</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,34 +5628,34 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>792</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>297</v>
+        <v>217</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>792</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5667,13 +5664,13 @@
         <v>792</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5682,34 +5679,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>258</v>
+      </c>
+      <c r="D21" s="7">
+        <v>180163</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="7">
         <v>249</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>177994</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>258</v>
-      </c>
-      <c r="I21" s="7">
-        <v>180163</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
         <v>507</v>
@@ -5718,51 +5715,51 @@
         <v>358158</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>91</v>
+      </c>
+      <c r="D22" s="7">
+        <v>62763</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="H22" s="7">
         <v>96</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>70730</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H22" s="7">
-        <v>91</v>
-      </c>
-      <c r="I22" s="7">
-        <v>62763</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="M22" s="7">
         <v>187</v>
@@ -5771,13 +5768,13 @@
         <v>133492</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,34 +5783,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>96</v>
+      </c>
+      <c r="D23" s="7">
+        <v>68197</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="H23" s="7">
         <v>101</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>75119</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="H23" s="7">
-        <v>96</v>
-      </c>
-      <c r="I23" s="7">
-        <v>68197</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M23" s="7">
         <v>197</v>
@@ -5822,13 +5819,13 @@
         <v>143316</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5837,34 +5834,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>38</v>
+      </c>
+      <c r="D24" s="7">
+        <v>27225</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H24" s="7">
         <v>27</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>20083</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H24" s="7">
-        <v>38</v>
-      </c>
-      <c r="I24" s="7">
-        <v>27225</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="M24" s="7">
         <v>65</v>
@@ -5873,13 +5870,13 @@
         <v>47307</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5888,34 +5885,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7">
+        <v>4556</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H25" s="7">
         <v>5</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>3614</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H25" s="7">
-        <v>6</v>
-      </c>
-      <c r="I25" s="7">
-        <v>4556</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>327</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -5924,13 +5921,13 @@
         <v>8170</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>332</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5939,34 +5936,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>2067</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2067</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>333</v>
-      </c>
       <c r="K26" s="7" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>334</v>
+        <v>223</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -5975,13 +5972,13 @@
         <v>2067</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5990,34 +5987,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>234</v>
+      </c>
+      <c r="D27" s="7">
+        <v>164807</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="7">
         <v>229</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>169545</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>234</v>
-      </c>
-      <c r="I27" s="7">
-        <v>164807</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M27" s="7">
         <v>463</v>
@@ -6026,13 +6023,13 @@
         <v>334352</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,28 +6040,28 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>212</v>
+      </c>
+      <c r="D28" s="7">
+        <v>146820</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="H28" s="7">
         <v>209</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>150515</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="J28" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="H28" s="7">
-        <v>212</v>
-      </c>
-      <c r="I28" s="7">
-        <v>146820</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>341</v>
@@ -6094,34 +6091,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D29" s="7">
-        <v>140691</v>
+        <v>137271</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>347</v>
       </c>
       <c r="H29" s="7">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I29" s="7">
-        <v>137271</v>
+        <v>140691</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>157</v>
+        <v>348</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M29" s="7">
         <v>388</v>
@@ -6130,13 +6127,13 @@
         <v>277963</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,34 +6142,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>70</v>
+      </c>
+      <c r="D30" s="7">
+        <v>50733</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H30" s="7">
         <v>66</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>48177</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="H30" s="7">
-        <v>70</v>
-      </c>
-      <c r="I30" s="7">
-        <v>50733</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M30" s="7">
         <v>136</v>
@@ -6181,13 +6178,13 @@
         <v>98910</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,10 +6193,10 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" s="7">
-        <v>8156</v>
+        <v>7286</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>362</v>
@@ -6208,19 +6205,19 @@
         <v>363</v>
       </c>
       <c r="G31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="7">
+        <v>11</v>
+      </c>
+      <c r="I31" s="7">
+        <v>8156</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="H31" s="7">
-        <v>10</v>
-      </c>
-      <c r="I31" s="7">
-        <v>7286</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>366</v>
@@ -6232,13 +6229,13 @@
         <v>15442</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>101</v>
+        <v>367</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>248</v>
+        <v>368</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,34 +6244,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>2859</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="7">
+        <v>0</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="H32" s="7">
-        <v>4</v>
-      </c>
-      <c r="I32" s="7">
-        <v>2859</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>217</v>
-      </c>
       <c r="K32" s="7" t="s">
-        <v>367</v>
+        <v>101</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>368</v>
+        <v>254</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -6286,10 +6283,10 @@
         <v>369</v>
       </c>
       <c r="P32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6298,34 +6295,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>492</v>
+      </c>
+      <c r="D33" s="7">
+        <v>344970</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="7">
         <v>478</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>347539</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="7">
-        <v>492</v>
-      </c>
-      <c r="I33" s="7">
-        <v>344970</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M33" s="7">
         <v>970</v>
@@ -6334,18 +6331,18 @@
         <v>692509</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
